--- a/Results/Results_macro_JB.xlsx
+++ b/Results/Results_macro_JB.xlsx
@@ -22,76 +22,76 @@
     <t>Indicator</t>
   </si>
   <si>
-    <t>CHCPIY_ECI</t>
-  </si>
-  <si>
-    <t>CHJOB_ECI</t>
-  </si>
-  <si>
-    <t>CHPMI_ECI</t>
-  </si>
-  <si>
-    <t>CNCPI_ECI</t>
-  </si>
-  <si>
-    <t>CNPMIB_ECI</t>
-  </si>
-  <si>
-    <t>EUHICY_ECI</t>
-  </si>
-  <si>
-    <t>EUUNR_ECI</t>
-  </si>
-  <si>
-    <t>RUCPIY_ECI</t>
-  </si>
-  <si>
-    <t>RUUNR_ECI</t>
-  </si>
-  <si>
-    <t>USCPI_ECI</t>
-  </si>
-  <si>
-    <t>USPMI_ECI</t>
-  </si>
-  <si>
-    <t>USUNR_ECI</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=3.454505438638618, pvalue=0.17777212964904443)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=14.1945504248204, pvalue=0.0008273562246873256)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=5.203242966838809, pvalue=0.07415324242636756)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=22.98710187582568, pvalue=1.0195634312148982e-05)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=18858.864573979634, pvalue=0.0)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=29.772924436266266, pvalue=3.426822451357836e-07)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=11.906648648708076, pvalue=0.0025971922421126337)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=62.464808650377115, pvalue=2.731148640577885e-14)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=2.8211357496109937, pvalue=0.24400467969243445)</t>
+    <t>CHCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>CHJOB_DIFF</t>
+  </si>
+  <si>
+    <t>CHPMI_LOG</t>
+  </si>
+  <si>
+    <t>CNCPI_DIFF</t>
+  </si>
+  <si>
+    <t>CNPMIB_LOG</t>
+  </si>
+  <si>
+    <t>EUHICY_DIFF</t>
+  </si>
+  <si>
+    <t>EUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>RUCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>RUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>USCPI_DIFF</t>
+  </si>
+  <si>
+    <t>USPMI_LOG</t>
+  </si>
+  <si>
+    <t>USUNR_DIFF</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=0.518448176710372, pvalue=0.7716500858693021)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=1812.3511516402243, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=15.351350939854399, pvalue=0.0004639770491838835)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=6.1008027278562285, pvalue=0.04733992004130139)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=13123.542297006847, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=24.992696153119685, pvalue=3.740287504716555e-06)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=53.76823698931334, pvalue=2.11042294750996e-12)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=440.5059133585973, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=372.4452209618373, pvalue=0.0)</t>
   </si>
   <si>
     <t>Jarque_beraResult(statistic=22.804358530972703, pvalue=1.1171113474373051e-05)</t>
   </si>
   <si>
-    <t>Jarque_beraResult(statistic=0.9860493678197912, pvalue=0.6107761925353083)</t>
-  </si>
-  <si>
-    <t>Jarque_beraResult(statistic=133.30273332568865, pvalue=0.0)</t>
+    <t>Jarque_beraResult(statistic=332.33510074930973, pvalue=0.0)</t>
+  </si>
+  <si>
+    <t>Jarque_beraResult(statistic=41605.25538742063, pvalue=0.0)</t>
   </si>
 </sst>
 </file>
